--- a/TruckModelling.xlsx
+++ b/TruckModelling.xlsx
@@ -12,39 +12,39 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_A" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_F" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">#REF!</definedName>
     <definedName name="_1__123Graph_A__200__BPF" hidden="1">#REF!</definedName>
+    <definedName name="_10__123Graph_C__200__D50" hidden="1">#REF!</definedName>
+    <definedName name="_11__123Graph_CGRANULOMETRIA_1" hidden="1">#REF!</definedName>
+    <definedName name="_12__123Graph_D__200__BPF" hidden="1">#REF!</definedName>
+    <definedName name="_13__123Graph_D__200__D50" hidden="1">#REF!</definedName>
+    <definedName name="_14__123Graph_E__200__BPF" hidden="1">#REF!</definedName>
+    <definedName name="_15__123Graph_E__200__D50" hidden="1">#REF!</definedName>
+    <definedName name="_16__123Graph_F__200__BPF" hidden="1">#REF!</definedName>
+    <definedName name="_17__123Graph_F__200__D50" hidden="1">#REF!</definedName>
+    <definedName name="_18__123Graph_X__200__BPF" hidden="1">#REF!</definedName>
+    <definedName name="_19__123Graph_X__200__D50" hidden="1">#REF!</definedName>
     <definedName name="_2__123Graph_A__200__D50" hidden="1">#REF!</definedName>
+    <definedName name="_20__123Graph_XEFICIENCIA_1" hidden="1">#REF!</definedName>
+    <definedName name="_21__123Graph_XGRANULOMETRIA_1" hidden="1">#REF!</definedName>
     <definedName name="_3__123Graph_AEFICIENCIA_1" hidden="1">#REF!</definedName>
     <definedName name="_4__123Graph_AGRANULOMETRIA_1" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_B" hidden="1">#REF!</definedName>
     <definedName name="_5__123Graph_B__200__BPF" hidden="1">#REF!</definedName>
     <definedName name="_6__123Graph_B__200__D50" hidden="1">#REF!</definedName>
     <definedName name="_7__123Graph_BEFICIENCIA_1" hidden="1">#REF!</definedName>
     <definedName name="_8__123Graph_BGRANULOMETRIA_1" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_C" hidden="1">#REF!</definedName>
     <definedName name="_9__123Graph_C__200__BPF" hidden="1">#REF!</definedName>
-    <definedName name="_10__123Graph_C__200__D50" hidden="1">#REF!</definedName>
-    <definedName name="_11__123Graph_CGRANULOMETRIA_1" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">#REF!</definedName>
-    <definedName name="_12__123Graph_D__200__BPF" hidden="1">#REF!</definedName>
-    <definedName name="_13__123Graph_D__200__D50" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">#REF!</definedName>
-    <definedName name="_14__123Graph_E__200__BPF" hidden="1">#REF!</definedName>
-    <definedName name="_15__123Graph_E__200__D50" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_F" hidden="1">#REF!</definedName>
-    <definedName name="_16__123Graph_F__200__BPF" hidden="1">#REF!</definedName>
-    <definedName name="_17__123Graph_F__200__D50" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">#REF!</definedName>
-    <definedName name="_18__123Graph_X__200__BPF" hidden="1">#REF!</definedName>
-    <definedName name="_19__123Graph_X__200__D50" hidden="1">#REF!</definedName>
-    <definedName name="_20__123Graph_XEFICIENCIA_1" hidden="1">#REF!</definedName>
-    <definedName name="_21__123Graph_XGRANULOMETRIA_1" hidden="1">#REF!</definedName>
+    <definedName name="_FHE7" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_jy5" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Regression_Out" hidden="1">#REF!</definedName>
@@ -55,6 +55,9 @@
     <definedName name="_Table2_In1" hidden="1">#REF!</definedName>
     <definedName name="_Table2_In2" hidden="1">#REF!</definedName>
     <definedName name="_Table2_Out" hidden="1">#REF!</definedName>
+    <definedName name="_tyl2" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
+    <definedName name="_wrn1" hidden="1">{#N/A,#N/A,TRUE,"Est. de Fact.";#N/A,#N/A,TRUE,"Capitulo 19";#N/A,#N/A,TRUE,"Proyecto P855"}</definedName>
+    <definedName name="_zx2" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="A" hidden="1">{#N/A,#N/A,FALSE,"Total_OC015";#N/A,#N/A,FALSE,"ADMIN";#N/A,#N/A,FALSE,"PROCES";#N/A,#N/A,FALSE,"mecan";#N/A,#N/A,FALSE,"civil";#N/A,#N/A,FALSE,"CAÑER";#N/A,#N/A,FALSE,"ELEC";#N/A,#N/A,FALSE,"INSTR"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="aaa" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
@@ -78,18 +81,16 @@
     <definedName name="erd" hidden="1">{#N/A,#N/A,FALSE,"IC_Global";#N/A,#N/A,FALSE,"IC_Global (98-f)";#N/A,#N/A,FALSE,"Inc";#N/A,#N/A,FALSE,"CAMBIOS (2)";#N/A,#N/A,FALSE,"EXPL Inc.";#N/A,#N/A,FALSE,"HITOS98";#N/A,#N/A,FALSE,"CURVA ""S"" GLOBAL ";#N/A,#N/A,FALSE,"CURVA ""S"" 1998 "}</definedName>
     <definedName name="FACY" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="fgch" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
-    <definedName name="_FHE7" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="FHSFJKSG" hidden="1">{#N/A,#N/A,FALSE,"RESUMEN";#N/A,#N/A,FALSE,"GG-GI";#N/A,#N/A,FALSE,"AMB";#N/A,#N/A,FALSE,"EyR";#N/A,#N/A,FALSE,"UCP";#N/A,#N/A,FALSE,"IND";#N/A,#N/A,FALSE,"LR";#N/A,#N/A,FALSE,"PRV";#N/A,#N/A,FALSE,"TÚNELES";#N/A,#N/A,FALSE,"IDT";#N/A,#N/A,FALSE,"ING"}</definedName>
     <definedName name="Fuelpr">'[1]Equipment Cost Build Up'!$C$3</definedName>
     <definedName name="gigi" hidden="1">{#N/A,#N/A,FALSE,"summary";#N/A,#N/A,FALSE,"SumGraph"}</definedName>
     <definedName name="GJLHÑÑGHK" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
-    <definedName name="haulmq">'[4]Physical Summary'!#REF!</definedName>
-    <definedName name="haulper">'[4]Physical Summary'!#REF!</definedName>
+    <definedName name="haulmq">'[2]Physical Summary'!#REF!</definedName>
+    <definedName name="haulper">'[2]Physical Summary'!#REF!</definedName>
     <definedName name="HGH" hidden="1">{#N/A,#N/A,FALSE,"summary";#N/A,#N/A,FALSE,"SumGraph"}</definedName>
     <definedName name="hhhhh" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="III" hidden="1">{#N/A,#N/A,FALSE,"summary";#N/A,#N/A,FALSE,"SumGraph"}</definedName>
     <definedName name="JUPOX" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
-    <definedName name="_jy5" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="lots" hidden="1">{#N/A,#N/A,FALSE,"Total_OC015";#N/A,#N/A,FALSE,"ADMIN";#N/A,#N/A,FALSE,"PROCES";#N/A,#N/A,FALSE,"mecan";#N/A,#N/A,FALSE,"civil";#N/A,#N/A,FALSE,"CAÑER";#N/A,#N/A,FALSE,"ELEC";#N/A,#N/A,FALSE,"INSTR"}</definedName>
     <definedName name="Macro1">[0]!Macro1</definedName>
     <definedName name="mcr">'[1]Equipment Cost Build Up'!#REF!</definedName>
@@ -109,7 +110,6 @@
     <definedName name="stempr">#REF!</definedName>
     <definedName name="tcr">'[1]Equipment Cost Build Up'!#REF!</definedName>
     <definedName name="tuut" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
-    <definedName name="_tyl2" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="U_T_Assay_Rate">'[1]Equipment Cost Build Up'!#REF!</definedName>
     <definedName name="VCXNVJHKKLYJ" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="viio" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
@@ -123,20 +123,18 @@
     <definedName name="wrn.PRINTEPRS." hidden="1">{#N/A,#N/A,FALSE,"minas";#N/A,#N/A,FALSE,"Total_OC015";#N/A,#N/A,FALSE,"ADMIN";#N/A,#N/A,FALSE,"PROCES";#N/A,#N/A,FALSE,"civil";#N/A,#N/A,FALSE,"CAÑER";#N/A,#N/A,FALSE,"ELEC";#N/A,#N/A,FALSE,"INSTR";#N/A,#N/A,FALSE,"PDS";#N/A,#N/A,FALSE,"mecan"}</definedName>
     <definedName name="wrn.printeprs1" hidden="1">{#N/A,#N/A,FALSE,"minas";#N/A,#N/A,FALSE,"Total_OC015";#N/A,#N/A,FALSE,"ADMIN";#N/A,#N/A,FALSE,"PROCES";#N/A,#N/A,FALSE,"civil";#N/A,#N/A,FALSE,"CAÑER";#N/A,#N/A,FALSE,"ELEC";#N/A,#N/A,FALSE,"INSTR";#N/A,#N/A,FALSE,"PDS";#N/A,#N/A,FALSE,"mecan"}</definedName>
     <definedName name="wrn.unidades." hidden="1">{#N/A,#N/A,FALSE,"RESUMEN";#N/A,#N/A,FALSE,"GG-GI";#N/A,#N/A,FALSE,"AMB";#N/A,#N/A,FALSE,"EyR";#N/A,#N/A,FALSE,"UCP";#N/A,#N/A,FALSE,"IND";#N/A,#N/A,FALSE,"LR";#N/A,#N/A,FALSE,"PRV";#N/A,#N/A,FALSE,"TÚNELES";#N/A,#N/A,FALSE,"IDT";#N/A,#N/A,FALSE,"ING"}</definedName>
-    <definedName name="_wrn1" hidden="1">{#N/A,#N/A,TRUE,"Est. de Fact.";#N/A,#N/A,TRUE,"Capitulo 19";#N/A,#N/A,TRUE,"Proyecto P855"}</definedName>
     <definedName name="www" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="xx" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="xxxx" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="xxxxx" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
     <definedName name="yy" hidden="1">{#N/A,#N/A,FALSE,"Total_OC015";#N/A,#N/A,FALSE,"ADMIN";#N/A,#N/A,FALSE,"PROCES";#N/A,#N/A,FALSE,"mecan";#N/A,#N/A,FALSE,"civil";#N/A,#N/A,FALSE,"CAÑER";#N/A,#N/A,FALSE,"ELEC";#N/A,#N/A,FALSE,"INSTR"}</definedName>
-    <definedName name="_zx2" hidden="1">{#N/A,#N/A,FALSE,"masez (10)";#N/A,#N/A,FALSE,"masez (7)";#N/A,#N/A,FALSE,"masez (6)";#N/A,#N/A,FALSE,"masez (5)";#N/A,#N/A,FALSE,"masez (4)";#N/A,#N/A,FALSE,"masez (3)";#N/A,#N/A,FALSE,"masez (2)";#N/A,#N/A,FALSE,"GME";#N/A,#N/A,FALSE,"masez"}</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Truck Performance</t>
   </si>
@@ -283,6 +281,15 @@
   </si>
   <si>
     <t>Maximum Truck Weight</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
   </si>
 </sst>
 </file>
@@ -296,8 +303,6 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="m/d/yy\ h:mm"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
     <numFmt numFmtId="173" formatCode="&quot;Ch$&quot;#,##0_);\(&quot;Ch$&quot;#,##0\)"/>
@@ -306,7 +311,9 @@
     <numFmt numFmtId="176" formatCode="0.000;\(0.000\);0.000"/>
     <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm:ss"/>
     <numFmt numFmtId="178" formatCode="0.0000%"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -316,6 +323,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -548,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1142,6 +1150,36 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1255,7 +1293,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,12 +1339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="34" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1331,9 +1363,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1344,15 +1373,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="32" xfId="48" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1364,50 +1384,29 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="47" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1435,62 +1434,8 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="24" xfId="47" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="25" xfId="47" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="47" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="44" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="45" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="28" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="29" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="35" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="35" fillId="6" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="6" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="35" fillId="6" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="35" fillId="6" borderId="24" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="35" fillId="6" borderId="25" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="35" fillId="6" borderId="26" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1507,6 +1452,124 @@
     <xf numFmtId="165" fontId="35" fillId="6" borderId="24" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="35" fillId="6" borderId="25" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="35" fillId="6" borderId="26" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="44" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="45" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="28" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="29" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="6" borderId="26" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="6" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="6" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="35" fillId="6" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="50" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="35" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="48" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="23" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="Cabecera 1" xfId="2"/>
@@ -1676,78 +1739,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="resumen"/>
-      <sheetName val="Esc 1"/>
-      <sheetName val="Base"/>
-      <sheetName val="Energía Esc 1"/>
-      <sheetName val="Energía base"/>
-      <sheetName val="Datos"/>
-      <sheetName val="#¡REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Balance Finos"/>
-      <sheetName val="Flotación"/>
-      <sheetName val="Flotación Primaria"/>
-      <sheetName val="Flotación Primaria 13 (S1)"/>
-      <sheetName val="Flotación Primaria 7-12 (S2)"/>
-      <sheetName val="Flotación Primaria 1-6 (S3)"/>
-      <sheetName val="Flotación Primaria 14-15 (S4)"/>
-      <sheetName val="Resumen Flot.1ª"/>
-      <sheetName val="Flotación Limpieza"/>
-      <sheetName val="Flotación Barrido"/>
-      <sheetName val="REMOLIENDA"/>
-      <sheetName val="SF"/>
-      <sheetName val="ciclones Nuevos"/>
-      <sheetName val="Resumen"/>
-      <sheetName val="Flotación (Check)"/>
-      <sheetName val="Balance Finos Equipos"/>
-      <sheetName val="DimenI"/>
-      <sheetName val="DimenII"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2127,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2141,16 +2132,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2168,82 +2159,82 @@
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="132">
+      <c r="B4" s="83">
         <v>0</v>
       </c>
-      <c r="C4" s="133">
+      <c r="C4" s="84">
         <v>0.1</v>
       </c>
-      <c r="D4" s="134">
+      <c r="D4" s="85">
         <v>-0.1</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="86">
         <v>2014</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="87">
         <v>2014</v>
       </c>
-      <c r="D5" s="137">
+      <c r="D5" s="88">
         <v>2014</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="89">
         <v>0.8</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="90">
         <v>0.8</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="78">
         <v>0.8</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="91">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="92">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D7" s="124">
+      <c r="D7" s="79">
         <v>1.1499999999999999</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="142">
+      <c r="B8" s="93">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="94">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H8" s="6"/>
@@ -2254,44 +2245,46 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10">
-        <f>$B16+$B40/(1-$B39)</f>
+        <f>$B16+$B38/(1-$B37)</f>
         <v>479.20583846399995</v>
       </c>
       <c r="C10" s="11">
-        <f>$B16+$B40/(1-$B39)</f>
+        <f>$B16+$B38/(1-$B37)</f>
         <v>479.20583846399995</v>
       </c>
       <c r="D10" s="12">
-        <f>$B16+$B40/(1-$B39)</f>
+        <f>$B16+$B38/(1-$B37)</f>
         <v>479.20583846399995</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="129">
+      <c r="B11" s="80">
         <v>45</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="81">
         <v>30</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="82">
         <v>30</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="13">
@@ -2309,7 +2302,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="17">
@@ -2327,7 +2320,7 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="21">
@@ -2354,40 +2347,40 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="100">
-        <f>$B35+$B40/(1-$B39)*$B37</f>
+      <c r="B16" s="75">
+        <f>$B33+$B38/(1-$B37)*$B35</f>
         <v>211.482182784</v>
       </c>
-      <c r="C16" s="101">
-        <f>$B35+$B40/(1-$B39)*$B37</f>
+      <c r="C16" s="76">
+        <f>$B33+$B38/(1-$B37)*$B35</f>
         <v>211.482182784</v>
       </c>
-      <c r="D16" s="102">
-        <f>$B35+$B40/(1-$B39)*$B37</f>
+      <c r="D16" s="77">
+        <f>$B33+$B38/(1-$B37)*$B35</f>
         <v>211.482182784</v>
       </c>
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="129">
+      <c r="B17" s="80">
         <v>45</v>
       </c>
-      <c r="C17" s="130">
+      <c r="C17" s="81">
         <v>30</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="82">
         <v>30</v>
       </c>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="13">
@@ -2405,7 +2398,7 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="28">
@@ -2423,7 +2416,7 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="71" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="31">
@@ -2447,692 +2440,686 @@
       <c r="D21" s="34"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A22" s="109" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="35"/>
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>22</v>
+      <c r="A23" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37">
+        <f>B12</f>
+        <v>45</v>
+      </c>
+      <c r="C23" s="38">
+        <f>B18</f>
+        <v>45</v>
       </c>
       <c r="D23" s="35"/>
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="39">
-        <f>B12</f>
-        <v>45</v>
-      </c>
-      <c r="C24" s="40">
-        <f>B18</f>
-        <v>45</v>
+      <c r="A24" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="40">
+        <f>C12</f>
+        <v>9.9199965196554718</v>
+      </c>
+      <c r="C24" s="41">
+        <f>C18</f>
+        <v>22.478112279636974</v>
       </c>
       <c r="D24" s="35"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="42">
-        <f>C12</f>
-        <v>9.9199965196554718</v>
-      </c>
-      <c r="C25" s="43">
-        <f>C18</f>
-        <v>22.478112279636974</v>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A25" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="43">
+        <f>D12</f>
+        <v>23.766658328341226</v>
+      </c>
+      <c r="C25" s="44">
+        <f>D18</f>
+        <v>30</v>
       </c>
       <c r="D25" s="35"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A26" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="45">
-        <f>D12</f>
-        <v>23.766658328341226</v>
-      </c>
-      <c r="C26" s="46">
-        <f>D18</f>
-        <v>30</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A27" s="109" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="34"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48" t="s">
+      <c r="B26" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C26" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="36" t="s">
+      <c r="D26" s="20"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B27" s="37">
         <f>B14</f>
         <v>429.10719840537075</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C27" s="38">
         <f>B20</f>
         <v>197.23779537704146</v>
       </c>
+      <c r="D27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="47">
+        <f>C14</f>
+        <v>469.262</v>
+      </c>
+      <c r="C28" s="41">
+        <f>C20</f>
+        <v>469.26200000000011</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="47">
+        <f>D14</f>
+        <v>14.077859999999999</v>
+      </c>
+      <c r="C29" s="41">
+        <f>D20</f>
+        <v>14.077859999999999</v>
+      </c>
       <c r="D29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="41" t="s">
-        <v>3</v>
+    <row r="30" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A30" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="50">
-        <f>C14</f>
-        <v>469.262</v>
-      </c>
-      <c r="C30" s="43">
-        <f>C20</f>
-        <v>469.26200000000011</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A31" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="53">
         <f>D14</f>
         <v>14.077859999999999</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C30" s="51">
         <f>D20</f>
         <v>14.077859999999999</v>
       </c>
+      <c r="D30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A32" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="56">
-        <f>D14</f>
-        <v>14.077859999999999</v>
-      </c>
-      <c r="C32" s="57">
-        <f>D20</f>
-        <v>14.077859999999999</v>
+    <row r="32" spans="1:8">
+      <c r="A32" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="20"/>
+      <c r="F32" s="138" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="108">
+        <v>198.096</v>
+      </c>
       <c r="D33" s="20"/>
       <c r="H33" s="20"/>
     </row>
-    <row r="34" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A34" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="108">
+        <v>479.91037440000002</v>
+      </c>
       <c r="D34" s="20"/>
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="120">
-        <v>198.096</v>
-      </c>
+      <c r="A35" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="103">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="52"/>
       <c r="D35" s="20"/>
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="121">
-        <v>479.91037440000002</v>
+      <c r="A36" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="104">
+        <v>1</v>
       </c>
       <c r="D36" s="20"/>
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="122">
-        <v>0.05</v>
-      </c>
-      <c r="C37" s="58"/>
+      <c r="A37" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="105">
+        <v>0.04</v>
+      </c>
       <c r="D37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="123">
-        <v>1</v>
+    <row r="38" spans="1:8" hidden="1">
+      <c r="A38" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="106">
+        <f>(B34-B33)*(1-B35)*(1-B37)*B36</f>
+        <v>257.01470945279999</v>
       </c>
       <c r="D38" s="20"/>
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="124">
-        <v>0.04</v>
+      <c r="A39" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="110">
+        <v>6600</v>
       </c>
       <c r="D39" s="20"/>
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="91">
-        <f>(B36-B35)*(1-B37)*(1-B39)*B38</f>
-        <v>257.01470945279999</v>
+      <c r="A40" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="110">
+        <v>50</v>
       </c>
       <c r="D40" s="20"/>
       <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="119">
-        <v>6600</v>
+      <c r="A41" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="107">
+        <v>1</v>
       </c>
       <c r="D41" s="20"/>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="125">
-        <v>50</v>
+      <c r="A42" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="109">
+        <v>2.5</v>
       </c>
       <c r="D42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="126">
+    <row r="43" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A43" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="111">
         <v>1</v>
       </c>
       <c r="D43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="127">
-        <v>2.5</v>
-      </c>
+    <row r="44" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="H44" s="53"/>
     </row>
     <row r="45" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A45" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="128">
-        <v>1</v>
-      </c>
+      <c r="A45" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="121"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A47" s="109" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="114"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="112"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="112"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="113">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="113">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="113">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="114"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="114"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="114">
+        <f>B52</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="114">
+        <f>B51</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="114">
+        <f>B50</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A58" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="115">
+        <f>SUM(B55:B57,B50:B52)</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A60" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A48" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="117"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="60" t="s">
+      <c r="B60" s="121"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="61"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="62" t="s">
+      <c r="B62" s="124"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="63"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="62" t="s">
+      <c r="B63" s="124">
+        <f>B41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="63"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="64" t="s">
+      <c r="B64" s="124">
+        <f>B42</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="118">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="64" t="s">
+      <c r="B65" s="124">
+        <f>B50/B23*60/1000</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="118">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="64" t="s">
+      <c r="B66" s="124">
+        <f>B51/B24*60/1000</f>
+        <v>10.887100593836793</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="119">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="66" t="s">
+      <c r="B67" s="124">
+        <f>B52/B25*60/1000</f>
+        <v>0.75736351957125547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="65"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="62" t="s">
+      <c r="B68" s="124"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="65"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="65">
-        <f>B54</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="65">
-        <f>B53</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="65">
-        <f>B52</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A60" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="68">
-        <f>SUM(B57:B59,B52:B54)</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-    </row>
-    <row r="62" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A62" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="111"/>
-    </row>
-    <row r="63" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A63" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="113"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="61"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="70">
+      <c r="B69" s="124">
         <f>B43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="62" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="124">
+        <f>B55/C24*60/1000</f>
+        <v>0.80077898784704815</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="124">
+        <f>B56/C25*60/1000</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="124">
+        <f>B57/C23*60/1000</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A73" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="125">
+        <f>SUM(B70:B72,B63:B67)</f>
+        <v>21.678576434588429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A75" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="130"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="132" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="124"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="124">
+        <f>B63*B30/60</f>
+        <v>0.23463099999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="70">
-        <f>B44</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="64" t="s">
+      <c r="B79" s="124">
+        <f>B64*B30/60</f>
+        <v>0.58657749999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="70">
-        <f>B52/B24*60/1000</f>
-        <v>1.0666666666666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="64" t="s">
+      <c r="B80" s="124">
+        <f>B65*B27/60</f>
+        <v>7.62857241609548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="70">
-        <f>B53/B25*60/1000</f>
-        <v>10.887100593836793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="64" t="s">
+      <c r="B81" s="124">
+        <f>B66*B28/60</f>
+        <v>85.14837664775068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="70">
-        <f>B54/B26*60/1000</f>
-        <v>0.75736351957125547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="66" t="s">
+      <c r="B82" s="124">
+        <f>B67*B29/60</f>
+        <v>0.17770095996052324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="70"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="62" t="s">
+      <c r="B83" s="124"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="70">
-        <f>B45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="64" t="s">
+      <c r="B84" s="124">
+        <f>B69*C28/60</f>
+        <v>7.8210333333333351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="70">
-        <f>B57/C25*60/1000</f>
-        <v>0.80077898784704815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="64" t="s">
+      <c r="B85" s="124">
+        <f>B70*C28/60</f>
+        <v>6.2629191565846929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="70">
-        <f>B58/C26*60/1000</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="64" t="s">
+      <c r="B86" s="124">
+        <f>B71*C29/60</f>
+        <v>0.84467159999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="70">
-        <f>B59/C24*60/1000</f>
-        <v>1.0666666666666667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A75" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="72">
-        <f>SUM(B72:B74,B65:B69)</f>
-        <v>21.678576434588429</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-    </row>
-    <row r="77" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A77" s="109" t="s">
+      <c r="B87" s="124">
+        <f>B72*C27/60</f>
+        <v>3.506449695591848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="128">
+        <f>SUM(B85:B87,B78:B82)</f>
+        <v>104.38989897598323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A89" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="125">
+        <f>IF(B73&gt;0,B88/B73*60,0)</f>
+        <v>288.92090573648898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="60"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A91" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="111"/>
-    </row>
-    <row r="78" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A78" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="113"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="74"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="75">
-        <f>B65*B32/60</f>
-        <v>0.23463099999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81" s="75">
-        <f>B66*B32/60</f>
-        <v>0.58657749999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="75">
-        <f>B67*B29/60</f>
-        <v>7.62857241609548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="75">
-        <f>B68*B30/60</f>
-        <v>85.14837664775068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="75">
-        <f>B69*B31/60</f>
-        <v>0.17770095996052324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="75"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="75">
-        <f>B71*C30/60</f>
-        <v>7.8210333333333351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="75">
-        <f>B72*C30/60</f>
-        <v>6.2629191565846929</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="75">
-        <f>B73*C31/60</f>
-        <v>0.84467159999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="75">
-        <f>B74*C29/60</f>
-        <v>3.506449695591848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="77">
-        <f>SUM(B87:B89,B80:B84)</f>
-        <v>104.38989897598323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A91" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="79">
-        <f>IF(B75&gt;0,B90/B75*60,0)</f>
-        <v>288.92090573648898</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="80"/>
-    </row>
-    <row r="93" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A93" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="111"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="81" t="s">
+      <c r="B91" s="132" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="82">
-        <f>B40/B75*B42</f>
+      <c r="B92" s="135">
+        <f>B38/B73*B40</f>
         <v>592.78502494917041</v>
       </c>
-      <c r="D94" s="88"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="83" t="s">
+      <c r="D92" s="139"/>
+      <c r="E92" s="140"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="84">
-        <f>(B91*B42+(60-B42)*C32)/60</f>
+      <c r="B93" s="136">
+        <f>(B89*B40+(60-B40)*C30)/60</f>
         <v>243.11373144707414</v>
       </c>
-      <c r="D95" s="88"/>
-    </row>
-    <row r="96" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A96" s="85" t="s">
+      <c r="D93" s="65"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A94" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="86">
-        <f>B94*B41</f>
+      <c r="B94" s="137">
+        <f>B92*B39</f>
         <v>3912381.1646645246</v>
       </c>
-      <c r="D96" s="88"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="87"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="141"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A77:B77"/>
+  <mergeCells count="5">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
